--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Alk.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0599567192125</v>
+        <v>0.05708639817066666</v>
       </c>
       <c r="R2">
-        <v>0.359740315275</v>
+        <v>0.342518389024</v>
       </c>
       <c r="S2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="T2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I3">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J3">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>0.9860619777840001</v>
       </c>
       <c r="S3">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="T3">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H4">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I4">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J4">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.08785446617455556</v>
+        <v>0.089650434381</v>
       </c>
       <c r="R4">
-        <v>0.7906901955710001</v>
+        <v>0.806853909429</v>
       </c>
       <c r="S4">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="T4">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H5">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I5">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J5">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5983784117174999</v>
+        <v>0.1639067576886667</v>
       </c>
       <c r="R5">
-        <v>3.590270470305</v>
+        <v>0.983440546132</v>
       </c>
       <c r="S5">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="T5">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H6">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I6">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J6">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.03743384804433333</v>
+        <v>0.1678305237837778</v>
       </c>
       <c r="R6">
-        <v>0.336904632399</v>
+        <v>1.510474714054</v>
       </c>
       <c r="S6">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="T6">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H7">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I7">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J7">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.09030843003166668</v>
+        <v>0.06822140790188888</v>
       </c>
       <c r="R7">
-        <v>0.8127758702850001</v>
+        <v>0.613992671117</v>
       </c>
       <c r="S7">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="T7">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
     </row>
   </sheetData>
